--- a/EX1/EX1.xlsx
+++ b/EX1/EX1.xlsx
@@ -16,17 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>TOTAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OUTPUT_DIRECTORY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -38,27 +30,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D:\git\PySolidworks\EX1\A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\git\PySolidworks\EX1\B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\git\PySolidworks\EX1\C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\git\PySolidworks\EX1\E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[EX1] Example</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\git\PySolidworks\EX1\D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,18 +84,12 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -181,7 +147,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -197,9 +163,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -211,12 +174,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,98 +474,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="5.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="3"/>
+    <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="8" t="s">
+    <row r="1" spans="1:2" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>40</v>
       </c>
       <c r="B4" s="4">
         <v>100</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4">
         <v>60</v>
       </c>
       <c r="B5" s="4">
         <v>200</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>80</v>
       </c>
       <c r="B6" s="4">
         <v>750</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>100</v>
       </c>
       <c r="B7" s="4">
         <v>1500</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
         <v>130</v>
       </c>
       <c r="B8" s="4">
         <v>1300</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
